--- a/ig/ch-lab-order/ValueSet-MicrobiolProcedures.xlsx
+++ b/ig/ch-lab-order/ValueSet-MicrobiolProcedures.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: ?ngen-9? (use: OFFICIAL)</t>
+    <t>?ngen-9? (use: official)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-29T23:17:38+02:00</t>
+    <t>2024-06-18T13:35:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch)</t>
+  </si>
+  <si>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -372,45 +375,45 @@
         <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -432,50 +435,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-lab-order/ValueSet-MicrobiolProcedures.xlsx
+++ b/ig/ch-lab-order/ValueSet-MicrobiolProcedures.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>?ngen-9? (use: official)</t>
+    <t>?ngen-9? (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T13:35:09+00:00</t>
+    <t>2025-05-22T12:28:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-lab-order/ValueSet-MicrobiolProcedures.xlsx
+++ b/ig/ch-lab-order/ValueSet-MicrobiolProcedures.xlsx
@@ -27,22 +27,16 @@
     <t>http://fhir.ch/ig/ch-lab-order/ValueSet/MicrobiolProcedures</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>?ngen-9? (use: official, )</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>MicrobiologicalProcedure</t>
+    <t>MicrobiolProcedures</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,13 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T12:28:53+00:00</t>
+    <t>2025-12-16T11:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,10 +102,16 @@
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[true]</t>
+    <t>BooleanType[null]</t>
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>19851009</t>
+  </si>
+  <si>
+    <t>Microbiology procedure (procedure)</t>
   </si>
   <si>
     <t>14788002</t>
@@ -272,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -364,15 +364,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>22</v>
@@ -390,15 +390,15 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -406,14 +406,6 @@
       </c>
       <c r="B16" t="s" s="2">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -423,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,49 +427,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B7" t="s" s="2">
         <v>41</v>
       </c>
     </row>
